--- a/Decision_analytics/Module4/CTG1 - Assignment 2 - Tasks, Hours, & Cost.xlsx
+++ b/Decision_analytics/Module4/CTG1 - Assignment 2 - Tasks, Hours, & Cost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27004"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nuwildcat-my.sharepoint.com/personal/jta1771_ads_northwestern_edu/Documents/Decision_analytics/Module4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/forreststrodel/Desktop/Northwestern/MSDS 460/Assignments/Assignment 2/DataScience/Decision_analytics/Module4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C753925F-E843-4066-8E5A-03D81D64C056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12A2EDD-BACC-4546-BA7C-E013B061A7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="0" windowWidth="35620" windowHeight="18880" firstSheet="1" activeTab="1" xr2:uid="{1B5D745C-8884-4D33-A526-84118B2469EE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{1B5D745C-8884-4D33-A526-84118B2469EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks &amp; Hours" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="61">
   <si>
     <t>taskID</t>
   </si>
@@ -70,15 +70,6 @@
   </si>
   <si>
     <t>dataEngineer</t>
-  </si>
-  <si>
-    <t>Best Cost</t>
-  </si>
-  <si>
-    <t>Expected Cost</t>
-  </si>
-  <si>
-    <t>Worst Cost</t>
   </si>
   <si>
     <t>A</t>
@@ -235,11 +226,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -416,8 +406,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -436,7 +424,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -765,22 +753,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1607D3ED-53EC-405A-8A08-88B30F9AD2ED}">
-  <dimension ref="A1:S38"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="7" max="11" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="7" max="11" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="7" customFormat="1" ht="30.75">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:11" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -798,37 +784,28 @@
       <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="B2" t="s">
         <v>12</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2">
@@ -843,45 +820,13 @@
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="L2" s="10">
-        <f>G2 / SUM($G$2:$K$2)</f>
-        <v>1</v>
-      </c>
-      <c r="M2" s="10">
-        <f>H2 / SUM($G$2:$K$2)</f>
-        <v>0</v>
-      </c>
-      <c r="N2" s="10">
-        <f>I2 / SUM($G$2:$K$2)</f>
-        <v>0</v>
-      </c>
-      <c r="O2" s="10">
-        <f>J2 / SUM($G$2:$K$2)</f>
-        <v>0</v>
-      </c>
-      <c r="P2" s="10">
-        <f>K2 / SUM($G$2:$K$2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <f>SUMPRODUCT($L2:$P2, $G$20:$K$20) * D2</f>
-        <v>144</v>
-      </c>
-      <c r="R2">
-        <f>SUMPRODUCT($L2:$P2, $G$20:$K$20) * E2</f>
-        <v>288</v>
-      </c>
-      <c r="S2">
-        <f>SUMPRODUCT($L2:$P2, $G$20:$K$20) * F2</f>
-        <v>432</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3">
@@ -899,48 +844,16 @@
       <c r="J3">
         <v>1</v>
       </c>
-      <c r="L3" s="10">
-        <f t="shared" ref="L3:L17" si="0">G3 / SUM($G$2:$K$2)</f>
-        <v>1</v>
-      </c>
-      <c r="M3" s="10">
-        <f t="shared" ref="M3:M17" si="1">H3 / SUM($G$2:$K$2)</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="10">
-        <f t="shared" ref="N3:N17" si="2">I3 / SUM($G$2:$K$2)</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="10">
-        <f t="shared" ref="O3:O17" si="3">J3 / SUM($G$2:$K$2)</f>
-        <v>1</v>
-      </c>
-      <c r="P3" s="10">
-        <f t="shared" ref="P3:P17" si="4">K3 / SUM($G$2:$K$2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <f>SUMPRODUCT($L3:$P3, $G$20:$K$20) * D3</f>
-        <v>1040</v>
-      </c>
-      <c r="R3">
-        <f>SUMPRODUCT($L3:$P3, $G$20:$K$20) * E3</f>
-        <v>1560</v>
-      </c>
-      <c r="S3">
-        <f>SUMPRODUCT($L3:$P3, $G$20:$K$20) * F3</f>
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -954,45 +867,13 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="L4" s="10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M4" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N4" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O4" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P4" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <f>SUMPRODUCT($L4:$P4, $G$20:$K$20) * D4</f>
-        <v>432</v>
-      </c>
-      <c r="R4">
-        <f>SUMPRODUCT($L4:$P4, $G$20:$K$20) * E4</f>
-        <v>720</v>
-      </c>
-      <c r="S4">
-        <f>SUMPRODUCT($L4:$P4, $G$20:$K$20) * F4</f>
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
@@ -1003,48 +884,16 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
-      <c r="L5" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M5" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N5" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O5" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P5" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <f>SUMPRODUCT($L5:$P5, $G$20:$K$20) * D5</f>
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <f>SUMPRODUCT($L5:$P5, $G$20:$K$20) * E5</f>
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <f>SUMPRODUCT($L5:$P5, $G$20:$K$20) * F5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -1058,48 +907,16 @@
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="L6" s="10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M6" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O6" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P6" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <f>SUMPRODUCT($L6:$P6, $G$20:$K$20) * D6</f>
-        <v>432</v>
-      </c>
-      <c r="R6">
-        <f>SUMPRODUCT($L6:$P6, $G$20:$K$20) * E6</f>
-        <v>576</v>
-      </c>
-      <c r="S6">
-        <f>SUMPRODUCT($L6:$P6, $G$20:$K$20) * F6</f>
-        <v>720</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D7">
         <v>8</v>
@@ -1122,48 +939,16 @@
       <c r="K7">
         <v>1</v>
       </c>
-      <c r="L7" s="10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M7" s="10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N7" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O7" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="10">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <f>SUMPRODUCT($L7:$P7, $G$20:$K$20) * D7</f>
-        <v>2112</v>
-      </c>
-      <c r="R7">
-        <f>SUMPRODUCT($L7:$P7, $G$20:$K$20) * E7</f>
-        <v>3168</v>
-      </c>
-      <c r="S7">
-        <f>SUMPRODUCT($L7:$P7, $G$20:$K$20) * F7</f>
-        <v>4224</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D8">
         <v>8</v>
@@ -1180,48 +965,16 @@
       <c r="K8">
         <v>1</v>
       </c>
-      <c r="L8" s="10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M8" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N8" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O8" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="10">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="Q8">
-        <f>SUMPRODUCT($L8:$P8, $G$20:$K$20) * D8</f>
-        <v>1152</v>
-      </c>
-      <c r="R8">
-        <f>SUMPRODUCT($L8:$P8, $G$20:$K$20) * E8</f>
-        <v>1728</v>
-      </c>
-      <c r="S8">
-        <f>SUMPRODUCT($L8:$P8, $G$20:$K$20) * F8</f>
-        <v>2304</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D9">
         <v>20</v>
@@ -1244,48 +997,16 @@
       <c r="K9">
         <v>1</v>
       </c>
-      <c r="L9" s="10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M9" s="10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N9" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O9" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="10">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="Q9">
-        <f>SUMPRODUCT($L9:$P9, $G$20:$K$20) * D9</f>
-        <v>5280</v>
-      </c>
-      <c r="R9">
-        <f>SUMPRODUCT($L9:$P9, $G$20:$K$20) * E9</f>
-        <v>7920</v>
-      </c>
-      <c r="S9">
-        <f>SUMPRODUCT($L9:$P9, $G$20:$K$20) * F9</f>
-        <v>10560</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -1302,48 +1023,16 @@
       <c r="K10">
         <v>1</v>
       </c>
-      <c r="L10" s="10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M10" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="10">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="Q10">
-        <f>SUMPRODUCT($L10:$P10, $G$20:$K$20) * D10</f>
-        <v>1440</v>
-      </c>
-      <c r="R10">
-        <f>SUMPRODUCT($L10:$P10, $G$20:$K$20) * E10</f>
-        <v>2160</v>
-      </c>
-      <c r="S10">
-        <f>SUMPRODUCT($L10:$P10, $G$20:$K$20) * F10</f>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -1366,48 +1055,16 @@
       <c r="K11">
         <v>1</v>
       </c>
-      <c r="L11" s="10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M11" s="10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N11" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O11" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="10">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="Q11">
-        <f>SUMPRODUCT($L11:$P11, $G$20:$K$20) * D11</f>
-        <v>2640</v>
-      </c>
-      <c r="R11">
-        <f>SUMPRODUCT($L11:$P11, $G$20:$K$20) * E11</f>
-        <v>3960</v>
-      </c>
-      <c r="S11">
-        <f>SUMPRODUCT($L11:$P11, $G$20:$K$20) * F11</f>
-        <v>5280</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D12">
         <v>12</v>
@@ -1424,48 +1081,16 @@
       <c r="K12">
         <v>1</v>
       </c>
-      <c r="L12" s="10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M12" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="10">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="Q12">
-        <f>SUMPRODUCT($L12:$P12, $G$20:$K$20) * D12</f>
-        <v>1728</v>
-      </c>
-      <c r="R12">
-        <f>SUMPRODUCT($L12:$P12, $G$20:$K$20) * E12</f>
-        <v>2592</v>
-      </c>
-      <c r="S12">
-        <f>SUMPRODUCT($L12:$P12, $G$20:$K$20) * F12</f>
-        <v>3456</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -1482,48 +1107,16 @@
       <c r="K13">
         <v>1</v>
       </c>
-      <c r="L13" s="10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M13" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N13" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="10">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="Q13">
-        <f>SUMPRODUCT($L13:$P13, $G$20:$K$20) * D13</f>
-        <v>576</v>
-      </c>
-      <c r="R13">
-        <f>SUMPRODUCT($L13:$P13, $G$20:$K$20) * E13</f>
-        <v>864</v>
-      </c>
-      <c r="S13">
-        <f>SUMPRODUCT($L13:$P13, $G$20:$K$20) * F13</f>
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D14">
         <v>10</v>
@@ -1540,48 +1133,16 @@
       <c r="J14">
         <v>1</v>
       </c>
-      <c r="L14" s="10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M14" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="10">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="P14" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <f>SUMPRODUCT($L14:$P14, $G$20:$K$20) * D14</f>
-        <v>1300</v>
-      </c>
-      <c r="R14">
-        <f>SUMPRODUCT($L14:$P14, $G$20:$K$20) * E14</f>
-        <v>1950</v>
-      </c>
-      <c r="S14">
-        <f>SUMPRODUCT($L14:$P14, $G$20:$K$20) * F14</f>
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D15">
         <v>6</v>
@@ -1598,48 +1159,16 @@
       <c r="J15">
         <v>1</v>
       </c>
-      <c r="L15" s="10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M15" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="10">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="P15" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <f>SUMPRODUCT($L15:$P15, $G$20:$K$20) * D15</f>
-        <v>780</v>
-      </c>
-      <c r="R15">
-        <f>SUMPRODUCT($L15:$P15, $G$20:$K$20) * E15</f>
-        <v>1170</v>
-      </c>
-      <c r="S15">
-        <f>SUMPRODUCT($L15:$P15, $G$20:$K$20) * F15</f>
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D16">
         <v>8</v>
@@ -1656,48 +1185,16 @@
       <c r="J16">
         <v>1</v>
       </c>
-      <c r="L16" s="10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M16" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="10">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="P16" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <f>SUMPRODUCT($L16:$P16, $G$20:$K$20) * D16</f>
-        <v>1040</v>
-      </c>
-      <c r="R16">
-        <f>SUMPRODUCT($L16:$P16, $G$20:$K$20) * E16</f>
-        <v>1560</v>
-      </c>
-      <c r="S16">
-        <f>SUMPRODUCT($L16:$P16, $G$20:$K$20) * F16</f>
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D17" s="1">
         <v>4</v>
@@ -1708,203 +1205,57 @@
       <c r="F17" s="1">
         <v>8</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="10">
         <v>1</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M17" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N17" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <f>SUMPRODUCT($L17:$P17, $G$20:$K$20) * D17</f>
-        <v>288</v>
-      </c>
-      <c r="R17">
-        <f>SUMPRODUCT($L17:$P17, $G$20:$K$20) * E17</f>
-        <v>432</v>
-      </c>
-      <c r="S17">
-        <f>SUMPRODUCT($L17:$P17, $G$20:$K$20) * F17</f>
-        <v>576</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
-      <c r="Q18">
-        <f>SUM(Q2:Q17)</f>
-        <v>20384</v>
-      </c>
-      <c r="R18">
-        <f>SUM(R2:R17)</f>
-        <v>30648</v>
-      </c>
-      <c r="S18">
-        <f>SUM(S2:S17)</f>
-        <v>40912</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
-      <c r="G19" s="8" t="str">
-        <f>G1</f>
-        <v>projectManager</v>
-      </c>
-      <c r="H19" s="8" t="str">
-        <f>H1</f>
-        <v>frontendDeveloper</v>
-      </c>
-      <c r="I19" s="8" t="str">
-        <f>I1</f>
-        <v>backendDeveloper</v>
-      </c>
-      <c r="J19" s="8" t="str">
-        <f>J1</f>
-        <v>dataScientist</v>
-      </c>
-      <c r="K19" s="8" t="str">
-        <f>K1</f>
-        <v>dataEngineer</v>
-      </c>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-    </row>
-    <row r="20" spans="1:19">
-      <c r="F20" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="9">
-        <v>72</v>
-      </c>
-      <c r="H20" s="9">
-        <v>60</v>
-      </c>
-      <c r="I20" s="9">
-        <v>60</v>
-      </c>
-      <c r="J20" s="9">
-        <v>58</v>
-      </c>
-      <c r="K20" s="9">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="F23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="F24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="G26" s="8" t="str">
-        <f>G19</f>
-        <v>projectManager</v>
-      </c>
-      <c r="H26" s="8" t="str">
-        <f t="shared" ref="H26:K26" si="5">H19</f>
-        <v>frontendDeveloper</v>
-      </c>
-      <c r="I26" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>backendDeveloper</v>
-      </c>
-      <c r="J26" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>dataScientist</v>
-      </c>
-      <c r="K26" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>dataEngineer</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:19">
-      <c r="A29" s="2"/>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:19">
-      <c r="A30" s="2"/>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:19">
-      <c r="A31" s="2"/>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:19">
-      <c r="A32" s="2"/>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2"/>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="2"/>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="2"/>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="2"/>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="2"/>
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="2"/>
-      <c r="C38" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1916,80 +1267,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3849111C-5E48-49C6-AAF8-3610982AA57C}">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:O3"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" customWidth="1"/>
-    <col min="2" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="3.7109375" customWidth="1"/>
-    <col min="11" max="15" width="17.7109375" customWidth="1"/>
-    <col min="16" max="16" width="3.7109375" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+    <col min="2" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="3.6640625" customWidth="1"/>
+    <col min="11" max="15" width="17.6640625" customWidth="1"/>
+    <col min="16" max="16" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="K2" s="22" t="s">
+    <row r="1" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="20" t="s">
         <v>3</v>
       </c>
       <c r="L2" s="9">
         <v>8304</v>
       </c>
-      <c r="N2" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="O2" s="24">
+      <c r="N2" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" s="22">
         <f>AVERAGE(L3:L4)</f>
         <v>14604</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" s="22" t="s">
+    <row r="3" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="20" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="9">
         <v>12504</v>
       </c>
-      <c r="N3" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="O3" s="28">
+      <c r="N3" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="26">
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
-      <c r="K4" s="22" t="s">
+    <row r="4" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="K4" s="20" t="s">
         <v>5</v>
       </c>
       <c r="L4" s="9">
         <v>16704</v>
       </c>
-      <c r="N4" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="O4" s="26">
+      <c r="N4" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="O4" s="24">
         <f>MROUND(O2 * (1 + O3), 500)</f>
         <v>18500</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
-      <c r="N5" s="22"/>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N5" s="20"/>
       <c r="O5" s="9"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E6" s="8" t="str">
         <f>E9</f>
         <v>projectManager</v>
@@ -2011,18 +1360,18 @@
         <v>dataEngineer</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="L6" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="M6" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D7" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E7" s="9">
         <v>72</v>
@@ -2040,66 +1389,66 @@
         <v>72</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L7" s="9">
         <f>SUMPRODUCT(E7:I7, K26:O26)</f>
         <v>16704</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="L9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="M9" s="14" t="s">
+      <c r="M9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="N9" s="14" t="s">
+      <c r="N9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="O9" s="14" t="s">
+      <c r="O9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="Q9" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="R9" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="Q9" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="R9" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <f>'Tasks &amp; Hours'!D2</f>
@@ -2133,23 +1482,23 @@
         <f>'Tasks &amp; Hours'!K2</f>
         <v>0</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="15">
         <f>IF(OR($A10 = $A$15, $A10 = $A$17, $A10 = $A$19), 2, E10 / SUM($E10:$I10) * HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J10), FALSE))</f>
         <v>6</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="15">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J10), FALSE) - IF(OR($A10 = $A$15, $A10 = $A$17, $A10 = $A$19), 2, 0)) * F10 / IF(OR($A10 = $A$15, $A10 = $A$17, $A10 = $A$19), SUM($E10:$I10) - 1, SUM($E10:$I10))</f>
         <v>0</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M10" s="15">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J10), FALSE) - IF(OR($A10 = $A$15, $A10 = $A$17, $A10 = $A$19), 2, 0)) * G10 / IF(OR($A10 = $A$15, $A10 = $A$17, $A10 = $A$19), SUM($E10:$I10) - 1, SUM($E10:$I10))</f>
         <v>0</v>
       </c>
-      <c r="N10" s="17">
+      <c r="N10" s="15">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J10), FALSE) - IF(OR($A10 = $A$15, $A10 = $A$17, $A10 = $A$19), 2, 0)) * H10 / IF(OR($A10 = $A$15, $A10 = $A$17, $A10 = $A$19), SUM($E10:$I10) - 1, SUM($E10:$I10))</f>
         <v>0</v>
       </c>
-      <c r="O10" s="17">
+      <c r="O10" s="15">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J10), FALSE) - IF(OR($A10 = $A$15, $A10 = $A$17, $A10 = $A$19), 2, 0)) * I10 / IF(OR($A10 = $A$15, $A10 = $A$17, $A10 = $A$19), SUM($E10:$I10) - 1, SUM($E10:$I10))</f>
         <v>0</v>
       </c>
@@ -2162,9 +1511,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <f>'Tasks &amp; Hours'!D3</f>
@@ -2198,23 +1547,23 @@
         <f>'Tasks &amp; Hours'!K3</f>
         <v>0</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="15">
         <f>IF(OR($A11 = $A$15, $A11 = $A$17, $A11 = $A$19), 2, E11 / SUM($E11:$I11) * HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J11), FALSE))</f>
         <v>8</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L11" s="15">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J11), FALSE) - IF(OR($A11 = $A$15, $A11 = $A$17, $A11 = $A$19), 2, 0)) * F11 / IF(OR($A11 = $A$15, $A11 = $A$17, $A11 = $A$19), SUM($E11:$I11) - 1, SUM($E11:$I11))</f>
         <v>0</v>
       </c>
-      <c r="M11" s="17">
+      <c r="M11" s="15">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J11), FALSE) - IF(OR($A11 = $A$15, $A11 = $A$17, $A11 = $A$19), 2, 0)) * G11 / IF(OR($A11 = $A$15, $A11 = $A$17, $A11 = $A$19), SUM($E11:$I11) - 1, SUM($E11:$I11))</f>
         <v>0</v>
       </c>
-      <c r="N11" s="17">
+      <c r="N11" s="15">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J11), FALSE) - IF(OR($A11 = $A$15, $A11 = $A$17, $A11 = $A$19), 2, 0)) * H11 / IF(OR($A11 = $A$15, $A11 = $A$17, $A11 = $A$19), SUM($E11:$I11) - 1, SUM($E11:$I11))</f>
         <v>8</v>
       </c>
-      <c r="O11" s="17">
+      <c r="O11" s="15">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J11), FALSE) - IF(OR($A11 = $A$15, $A11 = $A$17, $A11 = $A$19), 2, 0)) * I11 / IF(OR($A11 = $A$15, $A11 = $A$17, $A11 = $A$19), SUM($E11:$I11) - 1, SUM($E11:$I11))</f>
         <v>0</v>
       </c>
@@ -2227,9 +1576,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <f>'Tasks &amp; Hours'!D4</f>
@@ -2263,23 +1612,23 @@
         <f>'Tasks &amp; Hours'!K4</f>
         <v>0</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="15">
         <f>IF(OR($A12 = $A$15, $A12 = $A$17, $A12 = $A$19), 2, E12 / SUM($E12:$I12) * HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J12), FALSE))</f>
         <v>14</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="15">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J12), FALSE) - IF(OR($A12 = $A$15, $A12 = $A$17, $A12 = $A$19), 2, 0)) * F12 / IF(OR($A12 = $A$15, $A12 = $A$17, $A12 = $A$19), SUM($E12:$I12) - 1, SUM($E12:$I12))</f>
         <v>0</v>
       </c>
-      <c r="M12" s="17">
+      <c r="M12" s="15">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J12), FALSE) - IF(OR($A12 = $A$15, $A12 = $A$17, $A12 = $A$19), 2, 0)) * G12 / IF(OR($A12 = $A$15, $A12 = $A$17, $A12 = $A$19), SUM($E12:$I12) - 1, SUM($E12:$I12))</f>
         <v>0</v>
       </c>
-      <c r="N12" s="17">
+      <c r="N12" s="15">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J12), FALSE) - IF(OR($A12 = $A$15, $A12 = $A$17, $A12 = $A$19), 2, 0)) * H12 / IF(OR($A12 = $A$15, $A12 = $A$17, $A12 = $A$19), SUM($E12:$I12) - 1, SUM($E12:$I12))</f>
         <v>0</v>
       </c>
-      <c r="O12" s="17">
+      <c r="O12" s="15">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J12), FALSE) - IF(OR($A12 = $A$15, $A12 = $A$17, $A12 = $A$19), 2, 0)) * I12 / IF(OR($A12 = $A$15, $A12 = $A$17, $A12 = $A$19), SUM($E12:$I12) - 1, SUM($E12:$I12))</f>
         <v>0</v>
       </c>
@@ -2292,9 +1641,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -2304,17 +1653,17 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <f>'Tasks &amp; Hours'!D6</f>
@@ -2348,28 +1697,28 @@
         <f>'Tasks &amp; Hours'!K6</f>
         <v>0</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="15">
         <f>IF(OR($A14 = $A$15, $A14 = $A$17, $A14 = $A$19), 2, E14 / SUM($E14:$I14) * HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J14), FALSE))</f>
         <v>10</v>
       </c>
-      <c r="L14" s="17">
+      <c r="L14" s="15">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J14), FALSE) - IF(OR($A14 = $A$15, $A14 = $A$17, $A14 = $A$19), 2, 0)) * F14 / IF(OR($A14 = $A$15, $A14 = $A$17, $A14 = $A$19), SUM($E14:$I14) - 1, SUM($E14:$I14))</f>
         <v>0</v>
       </c>
-      <c r="M14" s="17">
+      <c r="M14" s="15">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J14), FALSE) - IF(OR($A14 = $A$15, $A14 = $A$17, $A14 = $A$19), 2, 0)) * G14 / IF(OR($A14 = $A$15, $A14 = $A$17, $A14 = $A$19), SUM($E14:$I14) - 1, SUM($E14:$I14))</f>
         <v>0</v>
       </c>
-      <c r="N14" s="17">
+      <c r="N14" s="15">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J14), FALSE) - IF(OR($A14 = $A$15, $A14 = $A$17, $A14 = $A$19), 2, 0)) * H14 / IF(OR($A14 = $A$15, $A14 = $A$17, $A14 = $A$19), SUM($E14:$I14) - 1, SUM($E14:$I14))</f>
         <v>0</v>
       </c>
-      <c r="O14" s="17">
+      <c r="O14" s="15">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J14), FALSE) - IF(OR($A14 = $A$15, $A14 = $A$17, $A14 = $A$19), 2, 0)) * I14 / IF(OR($A14 = $A$15, $A14 = $A$17, $A14 = $A$19), SUM($E14:$I14) - 1, SUM($E14:$I14))</f>
         <v>0</v>
       </c>
       <c r="Q14">
-        <f>SUM(K14:O14)</f>
+        <f t="shared" ref="Q14:Q25" si="0">SUM(K14:O14)</f>
         <v>10</v>
       </c>
       <c r="R14" t="b">
@@ -2377,9 +1726,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <f>'Tasks &amp; Hours'!D7</f>
@@ -2413,28 +1762,28 @@
         <f>'Tasks &amp; Hours'!K7</f>
         <v>1</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="15">
         <f>IF(OR($A15 = $A$15, $A15 = $A$17, $A15 = $A$19), 2, E15 / SUM($E15:$I15) * HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J15), FALSE))</f>
         <v>2</v>
       </c>
-      <c r="L15" s="17">
+      <c r="L15" s="15">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J15), FALSE) - IF(OR($A15 = $A$15, $A15 = $A$17, $A15 = $A$19), 2, 0)) * F15 / IF(OR($A15 = $A$15, $A15 = $A$17, $A15 = $A$19), SUM($E15:$I15) - 1, SUM($E15:$I15))</f>
         <v>4.666666666666667</v>
       </c>
-      <c r="M15" s="17">
+      <c r="M15" s="15">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J15), FALSE) - IF(OR($A15 = $A$15, $A15 = $A$17, $A15 = $A$19), 2, 0)) * G15 / IF(OR($A15 = $A$15, $A15 = $A$17, $A15 = $A$19), SUM($E15:$I15) - 1, SUM($E15:$I15))</f>
         <v>4.666666666666667</v>
       </c>
-      <c r="N15" s="17">
+      <c r="N15" s="15">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J15), FALSE) - IF(OR($A15 = $A$15, $A15 = $A$17, $A15 = $A$19), 2, 0)) * H15 / IF(OR($A15 = $A$15, $A15 = $A$17, $A15 = $A$19), SUM($E15:$I15) - 1, SUM($E15:$I15))</f>
         <v>0</v>
       </c>
-      <c r="O15" s="17">
+      <c r="O15" s="15">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J15), FALSE) - IF(OR($A15 = $A$15, $A15 = $A$17, $A15 = $A$19), 2, 0)) * I15 / IF(OR($A15 = $A$15, $A15 = $A$17, $A15 = $A$19), SUM($E15:$I15) - 1, SUM($E15:$I15))</f>
         <v>4.666666666666667</v>
       </c>
       <c r="Q15">
-        <f>SUM(K15:O15)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="R15" t="b">
@@ -2442,9 +1791,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <f>'Tasks &amp; Hours'!D8</f>
@@ -2478,28 +1827,28 @@
         <f>'Tasks &amp; Hours'!K8</f>
         <v>1</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K16" s="15">
         <f>IF(OR($A16 = $A$15, $A16 = $A$17, $A16 = $A$19), 2, E16 / SUM($E16:$I16) * HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J16), FALSE))</f>
         <v>8</v>
       </c>
-      <c r="L16" s="17">
+      <c r="L16" s="15">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J16), FALSE) - IF(OR($A16 = $A$15, $A16 = $A$17, $A16 = $A$19), 2, 0)) * F16 / IF(OR($A16 = $A$15, $A16 = $A$17, $A16 = $A$19), SUM($E16:$I16) - 1, SUM($E16:$I16))</f>
         <v>0</v>
       </c>
-      <c r="M16" s="17">
+      <c r="M16" s="15">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J16), FALSE) - IF(OR($A16 = $A$15, $A16 = $A$17, $A16 = $A$19), 2, 0)) * G16 / IF(OR($A16 = $A$15, $A16 = $A$17, $A16 = $A$19), SUM($E16:$I16) - 1, SUM($E16:$I16))</f>
         <v>0</v>
       </c>
-      <c r="N16" s="17">
+      <c r="N16" s="15">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J16), FALSE) - IF(OR($A16 = $A$15, $A16 = $A$17, $A16 = $A$19), 2, 0)) * H16 / IF(OR($A16 = $A$15, $A16 = $A$17, $A16 = $A$19), SUM($E16:$I16) - 1, SUM($E16:$I16))</f>
         <v>0</v>
       </c>
-      <c r="O16" s="17">
+      <c r="O16" s="15">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J16), FALSE) - IF(OR($A16 = $A$15, $A16 = $A$17, $A16 = $A$19), 2, 0)) * I16 / IF(OR($A16 = $A$15, $A16 = $A$17, $A16 = $A$19), SUM($E16:$I16) - 1, SUM($E16:$I16))</f>
         <v>8</v>
       </c>
       <c r="Q16">
-        <f>SUM(K16:O16)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="R16" t="b">
@@ -2507,9 +1856,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <f>'Tasks &amp; Hours'!D9</f>
@@ -2543,28 +1892,28 @@
         <f>'Tasks &amp; Hours'!K9</f>
         <v>1</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K17" s="15">
         <f>IF(OR($A17 = $A$15, $A17 = $A$17, $A17 = $A$19), 2, E17 / SUM($E17:$I17) * HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J17), FALSE))</f>
         <v>2</v>
       </c>
-      <c r="L17" s="17">
+      <c r="L17" s="15">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J17), FALSE) - IF(OR($A17 = $A$15, $A17 = $A$17, $A17 = $A$19), 2, 0)) * F17 / IF(OR($A17 = $A$15, $A17 = $A$17, $A17 = $A$19), SUM($E17:$I17) - 1, SUM($E17:$I17))</f>
         <v>12.666666666666666</v>
       </c>
-      <c r="M17" s="17">
+      <c r="M17" s="15">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J17), FALSE) - IF(OR($A17 = $A$15, $A17 = $A$17, $A17 = $A$19), 2, 0)) * G17 / IF(OR($A17 = $A$15, $A17 = $A$17, $A17 = $A$19), SUM($E17:$I17) - 1, SUM($E17:$I17))</f>
         <v>12.666666666666666</v>
       </c>
-      <c r="N17" s="17">
+      <c r="N17" s="15">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J17), FALSE) - IF(OR($A17 = $A$15, $A17 = $A$17, $A17 = $A$19), 2, 0)) * H17 / IF(OR($A17 = $A$15, $A17 = $A$17, $A17 = $A$19), SUM($E17:$I17) - 1, SUM($E17:$I17))</f>
         <v>0</v>
       </c>
-      <c r="O17" s="17">
+      <c r="O17" s="15">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J17), FALSE) - IF(OR($A17 = $A$15, $A17 = $A$17, $A17 = $A$19), 2, 0)) * I17 / IF(OR($A17 = $A$15, $A17 = $A$17, $A17 = $A$19), SUM($E17:$I17) - 1, SUM($E17:$I17))</f>
         <v>12.666666666666666</v>
       </c>
       <c r="Q17">
-        <f>SUM(K17:O17)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="R17" t="b">
@@ -2572,9 +1921,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B18">
         <f>'Tasks &amp; Hours'!D10</f>
@@ -2608,28 +1957,28 @@
         <f>'Tasks &amp; Hours'!K10</f>
         <v>1</v>
       </c>
-      <c r="K18" s="17">
+      <c r="K18" s="15">
         <f>IF(OR($A18 = $A$15, $A18 = $A$17, $A18 = $A$19), 2, E18 / SUM($E18:$I18) * HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J18), FALSE))</f>
         <v>10</v>
       </c>
-      <c r="L18" s="17">
+      <c r="L18" s="15">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J18), FALSE) - IF(OR($A18 = $A$15, $A18 = $A$17, $A18 = $A$19), 2, 0)) * F18 / IF(OR($A18 = $A$15, $A18 = $A$17, $A18 = $A$19), SUM($E18:$I18) - 1, SUM($E18:$I18))</f>
         <v>0</v>
       </c>
-      <c r="M18" s="17">
+      <c r="M18" s="15">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J18), FALSE) - IF(OR($A18 = $A$15, $A18 = $A$17, $A18 = $A$19), 2, 0)) * G18 / IF(OR($A18 = $A$15, $A18 = $A$17, $A18 = $A$19), SUM($E18:$I18) - 1, SUM($E18:$I18))</f>
         <v>0</v>
       </c>
-      <c r="N18" s="17">
+      <c r="N18" s="15">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J18), FALSE) - IF(OR($A18 = $A$15, $A18 = $A$17, $A18 = $A$19), 2, 0)) * H18 / IF(OR($A18 = $A$15, $A18 = $A$17, $A18 = $A$19), SUM($E18:$I18) - 1, SUM($E18:$I18))</f>
         <v>0</v>
       </c>
-      <c r="O18" s="17">
+      <c r="O18" s="15">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J18), FALSE) - IF(OR($A18 = $A$15, $A18 = $A$17, $A18 = $A$19), 2, 0)) * I18 / IF(OR($A18 = $A$15, $A18 = $A$17, $A18 = $A$19), SUM($E18:$I18) - 1, SUM($E18:$I18))</f>
         <v>10</v>
       </c>
       <c r="Q18">
-        <f>SUM(K18:O18)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="R18" t="b">
@@ -2637,9 +1986,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B19">
         <f>'Tasks &amp; Hours'!D11</f>
@@ -2673,28 +2022,28 @@
         <f>'Tasks &amp; Hours'!K11</f>
         <v>1</v>
       </c>
-      <c r="K19" s="17">
+      <c r="K19" s="15">
         <f>IF(OR($A19 = $A$15, $A19 = $A$17, $A19 = $A$19), 2, E19 / SUM($E19:$I19) * HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J19), FALSE))</f>
         <v>2</v>
       </c>
-      <c r="L19" s="17">
+      <c r="L19" s="15">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J19), FALSE) - IF(OR($A19 = $A$15, $A19 = $A$17, $A19 = $A$19), 2, 0)) * F19 / IF(OR($A19 = $A$15, $A19 = $A$17, $A19 = $A$19), SUM($E19:$I19) - 1, SUM($E19:$I19))</f>
         <v>6</v>
       </c>
-      <c r="M19" s="17">
+      <c r="M19" s="15">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J19), FALSE) - IF(OR($A19 = $A$15, $A19 = $A$17, $A19 = $A$19), 2, 0)) * G19 / IF(OR($A19 = $A$15, $A19 = $A$17, $A19 = $A$19), SUM($E19:$I19) - 1, SUM($E19:$I19))</f>
         <v>6</v>
       </c>
-      <c r="N19" s="17">
+      <c r="N19" s="15">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J19), FALSE) - IF(OR($A19 = $A$15, $A19 = $A$17, $A19 = $A$19), 2, 0)) * H19 / IF(OR($A19 = $A$15, $A19 = $A$17, $A19 = $A$19), SUM($E19:$I19) - 1, SUM($E19:$I19))</f>
         <v>0</v>
       </c>
-      <c r="O19" s="17">
+      <c r="O19" s="15">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J19), FALSE) - IF(OR($A19 = $A$15, $A19 = $A$17, $A19 = $A$19), 2, 0)) * I19 / IF(OR($A19 = $A$15, $A19 = $A$17, $A19 = $A$19), SUM($E19:$I19) - 1, SUM($E19:$I19))</f>
         <v>6</v>
       </c>
       <c r="Q19">
-        <f>SUM(K19:O19)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="R19" t="b">
@@ -2702,9 +2051,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B20">
         <f>'Tasks &amp; Hours'!D12</f>
@@ -2738,28 +2087,28 @@
         <f>'Tasks &amp; Hours'!K12</f>
         <v>1</v>
       </c>
-      <c r="K20" s="17">
+      <c r="K20" s="15">
         <f>IF(OR($A20 = $A$15, $A20 = $A$17, $A20 = $A$19), 2, E20 / SUM($E20:$I20) * HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J20), FALSE))</f>
         <v>12</v>
       </c>
-      <c r="L20" s="17">
+      <c r="L20" s="15">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J20), FALSE) - IF(OR($A20 = $A$15, $A20 = $A$17, $A20 = $A$19), 2, 0)) * F20 / IF(OR($A20 = $A$15, $A20 = $A$17, $A20 = $A$19), SUM($E20:$I20) - 1, SUM($E20:$I20))</f>
         <v>0</v>
       </c>
-      <c r="M20" s="17">
+      <c r="M20" s="15">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J20), FALSE) - IF(OR($A20 = $A$15, $A20 = $A$17, $A20 = $A$19), 2, 0)) * G20 / IF(OR($A20 = $A$15, $A20 = $A$17, $A20 = $A$19), SUM($E20:$I20) - 1, SUM($E20:$I20))</f>
         <v>0</v>
       </c>
-      <c r="N20" s="17">
+      <c r="N20" s="15">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J20), FALSE) - IF(OR($A20 = $A$15, $A20 = $A$17, $A20 = $A$19), 2, 0)) * H20 / IF(OR($A20 = $A$15, $A20 = $A$17, $A20 = $A$19), SUM($E20:$I20) - 1, SUM($E20:$I20))</f>
         <v>0</v>
       </c>
-      <c r="O20" s="17">
+      <c r="O20" s="15">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J20), FALSE) - IF(OR($A20 = $A$15, $A20 = $A$17, $A20 = $A$19), 2, 0)) * I20 / IF(OR($A20 = $A$15, $A20 = $A$17, $A20 = $A$19), SUM($E20:$I20) - 1, SUM($E20:$I20))</f>
         <v>12</v>
       </c>
       <c r="Q20">
-        <f>SUM(K20:O20)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="R20" t="b">
@@ -2767,9 +2116,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B21">
         <f>'Tasks &amp; Hours'!D13</f>
@@ -2803,28 +2152,28 @@
         <f>'Tasks &amp; Hours'!K13</f>
         <v>1</v>
       </c>
-      <c r="K21" s="17">
+      <c r="K21" s="15">
         <f>IF(OR($A21 = $A$15, $A21 = $A$17, $A21 = $A$19), 2, E21 / SUM($E21:$I21) * HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J21), FALSE))</f>
         <v>4</v>
       </c>
-      <c r="L21" s="17">
+      <c r="L21" s="15">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J21), FALSE) - IF(OR($A21 = $A$15, $A21 = $A$17, $A21 = $A$19), 2, 0)) * F21 / IF(OR($A21 = $A$15, $A21 = $A$17, $A21 = $A$19), SUM($E21:$I21) - 1, SUM($E21:$I21))</f>
         <v>0</v>
       </c>
-      <c r="M21" s="17">
+      <c r="M21" s="15">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J21), FALSE) - IF(OR($A21 = $A$15, $A21 = $A$17, $A21 = $A$19), 2, 0)) * G21 / IF(OR($A21 = $A$15, $A21 = $A$17, $A21 = $A$19), SUM($E21:$I21) - 1, SUM($E21:$I21))</f>
         <v>0</v>
       </c>
-      <c r="N21" s="17">
+      <c r="N21" s="15">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J21), FALSE) - IF(OR($A21 = $A$15, $A21 = $A$17, $A21 = $A$19), 2, 0)) * H21 / IF(OR($A21 = $A$15, $A21 = $A$17, $A21 = $A$19), SUM($E21:$I21) - 1, SUM($E21:$I21))</f>
         <v>0</v>
       </c>
-      <c r="O21" s="17">
+      <c r="O21" s="15">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J21), FALSE) - IF(OR($A21 = $A$15, $A21 = $A$17, $A21 = $A$19), 2, 0)) * I21 / IF(OR($A21 = $A$15, $A21 = $A$17, $A21 = $A$19), SUM($E21:$I21) - 1, SUM($E21:$I21))</f>
         <v>4</v>
       </c>
       <c r="Q21">
-        <f>SUM(K21:O21)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="R21" t="b">
@@ -2832,9 +2181,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B22">
         <f>'Tasks &amp; Hours'!D14</f>
@@ -2868,28 +2217,28 @@
         <f>'Tasks &amp; Hours'!K14</f>
         <v>0</v>
       </c>
-      <c r="K22" s="17">
+      <c r="K22" s="15">
         <f>IF(OR($A22 = $A$15, $A22 = $A$17, $A22 = $A$19), 2, E22 / SUM($E22:$I22) * HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J22), FALSE))</f>
         <v>10</v>
       </c>
-      <c r="L22" s="17">
+      <c r="L22" s="15">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J22), FALSE) - IF(OR($A22 = $A$15, $A22 = $A$17, $A22 = $A$19), 2, 0)) * F22 / IF(OR($A22 = $A$15, $A22 = $A$17, $A22 = $A$19), SUM($E22:$I22) - 1, SUM($E22:$I22))</f>
         <v>0</v>
       </c>
-      <c r="M22" s="17">
+      <c r="M22" s="15">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J22), FALSE) - IF(OR($A22 = $A$15, $A22 = $A$17, $A22 = $A$19), 2, 0)) * G22 / IF(OR($A22 = $A$15, $A22 = $A$17, $A22 = $A$19), SUM($E22:$I22) - 1, SUM($E22:$I22))</f>
         <v>0</v>
       </c>
-      <c r="N22" s="17">
+      <c r="N22" s="15">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J22), FALSE) - IF(OR($A22 = $A$15, $A22 = $A$17, $A22 = $A$19), 2, 0)) * H22 / IF(OR($A22 = $A$15, $A22 = $A$17, $A22 = $A$19), SUM($E22:$I22) - 1, SUM($E22:$I22))</f>
         <v>10</v>
       </c>
-      <c r="O22" s="17">
+      <c r="O22" s="15">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J22), FALSE) - IF(OR($A22 = $A$15, $A22 = $A$17, $A22 = $A$19), 2, 0)) * I22 / IF(OR($A22 = $A$15, $A22 = $A$17, $A22 = $A$19), SUM($E22:$I22) - 1, SUM($E22:$I22))</f>
         <v>0</v>
       </c>
       <c r="Q22">
-        <f>SUM(K22:O22)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="R22" t="b">
@@ -2897,9 +2246,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B23">
         <f>'Tasks &amp; Hours'!D15</f>
@@ -2933,28 +2282,28 @@
         <f>'Tasks &amp; Hours'!K15</f>
         <v>0</v>
       </c>
-      <c r="K23" s="17">
+      <c r="K23" s="15">
         <f>IF(OR($A23 = $A$15, $A23 = $A$17, $A23 = $A$19), 2, E23 / SUM($E23:$I23) * HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J23), FALSE))</f>
         <v>6</v>
       </c>
-      <c r="L23" s="17">
+      <c r="L23" s="15">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J23), FALSE) - IF(OR($A23 = $A$15, $A23 = $A$17, $A23 = $A$19), 2, 0)) * F23 / IF(OR($A23 = $A$15, $A23 = $A$17, $A23 = $A$19), SUM($E23:$I23) - 1, SUM($E23:$I23))</f>
         <v>0</v>
       </c>
-      <c r="M23" s="17">
+      <c r="M23" s="15">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J23), FALSE) - IF(OR($A23 = $A$15, $A23 = $A$17, $A23 = $A$19), 2, 0)) * G23 / IF(OR($A23 = $A$15, $A23 = $A$17, $A23 = $A$19), SUM($E23:$I23) - 1, SUM($E23:$I23))</f>
         <v>0</v>
       </c>
-      <c r="N23" s="17">
+      <c r="N23" s="15">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J23), FALSE) - IF(OR($A23 = $A$15, $A23 = $A$17, $A23 = $A$19), 2, 0)) * H23 / IF(OR($A23 = $A$15, $A23 = $A$17, $A23 = $A$19), SUM($E23:$I23) - 1, SUM($E23:$I23))</f>
         <v>6</v>
       </c>
-      <c r="O23" s="17">
+      <c r="O23" s="15">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J23), FALSE) - IF(OR($A23 = $A$15, $A23 = $A$17, $A23 = $A$19), 2, 0)) * I23 / IF(OR($A23 = $A$15, $A23 = $A$17, $A23 = $A$19), SUM($E23:$I23) - 1, SUM($E23:$I23))</f>
         <v>0</v>
       </c>
       <c r="Q23">
-        <f>SUM(K23:O23)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="R23" t="b">
@@ -2962,9 +2311,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B24">
         <f>'Tasks &amp; Hours'!D16</f>
@@ -2998,28 +2347,28 @@
         <f>'Tasks &amp; Hours'!K16</f>
         <v>0</v>
       </c>
-      <c r="K24" s="17">
+      <c r="K24" s="15">
         <f>IF(OR($A24 = $A$15, $A24 = $A$17, $A24 = $A$19), 2, E24 / SUM($E24:$I24) * HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J24), FALSE))</f>
         <v>8</v>
       </c>
-      <c r="L24" s="17">
+      <c r="L24" s="15">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J24), FALSE) - IF(OR($A24 = $A$15, $A24 = $A$17, $A24 = $A$19), 2, 0)) * F24 / IF(OR($A24 = $A$15, $A24 = $A$17, $A24 = $A$19), SUM($E24:$I24) - 1, SUM($E24:$I24))</f>
         <v>0</v>
       </c>
-      <c r="M24" s="17">
+      <c r="M24" s="15">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J24), FALSE) - IF(OR($A24 = $A$15, $A24 = $A$17, $A24 = $A$19), 2, 0)) * G24 / IF(OR($A24 = $A$15, $A24 = $A$17, $A24 = $A$19), SUM($E24:$I24) - 1, SUM($E24:$I24))</f>
         <v>0</v>
       </c>
-      <c r="N24" s="17">
+      <c r="N24" s="15">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J24), FALSE) - IF(OR($A24 = $A$15, $A24 = $A$17, $A24 = $A$19), 2, 0)) * H24 / IF(OR($A24 = $A$15, $A24 = $A$17, $A24 = $A$19), SUM($E24:$I24) - 1, SUM($E24:$I24))</f>
         <v>8</v>
       </c>
-      <c r="O24" s="17">
+      <c r="O24" s="15">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J24), FALSE) - IF(OR($A24 = $A$15, $A24 = $A$17, $A24 = $A$19), 2, 0)) * I24 / IF(OR($A24 = $A$15, $A24 = $A$17, $A24 = $A$19), SUM($E24:$I24) - 1, SUM($E24:$I24))</f>
         <v>0</v>
       </c>
       <c r="Q24">
-        <f>SUM(K24:O24)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="R24" t="b">
@@ -3027,9 +2376,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B25" s="1">
         <f>'Tasks &amp; Hours'!D17</f>
@@ -3043,7 +2392,7 @@
         <f>'Tasks &amp; Hours'!F17</f>
         <v>8</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="10">
         <f>'Tasks &amp; Hours'!G17</f>
         <v>1</v>
       </c>
@@ -3063,28 +2412,28 @@
         <f>'Tasks &amp; Hours'!K17</f>
         <v>0</v>
       </c>
-      <c r="K25" s="19">
+      <c r="K25" s="17">
         <f>IF(OR($A25 = $A$15, $A25 = $A$17, $A25 = $A$19), 2, E25 / SUM($E25:$I25) * HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J25), FALSE))</f>
         <v>8</v>
       </c>
-      <c r="L25" s="19">
+      <c r="L25" s="17">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J25), FALSE) - IF(OR($A25 = $A$15, $A25 = $A$17, $A25 = $A$19), 2, 0)) * F25 / IF(OR($A25 = $A$15, $A25 = $A$17, $A25 = $A$19), SUM($E25:$I25) - 1, SUM($E25:$I25))</f>
         <v>0</v>
       </c>
-      <c r="M25" s="19">
+      <c r="M25" s="17">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J25), FALSE) - IF(OR($A25 = $A$15, $A25 = $A$17, $A25 = $A$19), 2, 0)) * G25 / IF(OR($A25 = $A$15, $A25 = $A$17, $A25 = $A$19), SUM($E25:$I25) - 1, SUM($E25:$I25))</f>
         <v>0</v>
       </c>
-      <c r="N25" s="19">
+      <c r="N25" s="17">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J25), FALSE) - IF(OR($A25 = $A$15, $A25 = $A$17, $A25 = $A$19), 2, 0)) * H25 / IF(OR($A25 = $A$15, $A25 = $A$17, $A25 = $A$19), SUM($E25:$I25) - 1, SUM($E25:$I25))</f>
         <v>0</v>
       </c>
-      <c r="O25" s="19">
+      <c r="O25" s="17">
         <f>(HLOOKUP($L$6, $B$9:$D$25, ROWS($J$9:$J25), FALSE) - IF(OR($A25 = $A$15, $A25 = $A$17, $A25 = $A$19), 2, 0)) * I25 / IF(OR($A25 = $A$15, $A25 = $A$17, $A25 = $A$19), SUM($E25:$I25) - 1, SUM($E25:$I25))</f>
         <v>0</v>
       </c>
       <c r="Q25">
-        <f>SUM(K25:O25)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="R25" t="b">
@@ -3092,7 +2441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B26">
         <f>SUM(B10:B25)</f>
         <v>122</v>
@@ -3105,28 +2454,28 @@
         <f>SUM(D10:D25)</f>
         <v>246</v>
       </c>
-      <c r="K26" s="17">
+      <c r="K26" s="15">
         <f>SUM(K10:K25)</f>
         <v>110</v>
       </c>
-      <c r="L26" s="17">
-        <f t="shared" ref="L26:O26" si="0">SUM(L10:L25)</f>
+      <c r="L26" s="15">
+        <f t="shared" ref="L26:O26" si="1">SUM(L10:L25)</f>
         <v>23.333333333333332</v>
       </c>
-      <c r="M26" s="17">
-        <f t="shared" si="0"/>
+      <c r="M26" s="15">
+        <f t="shared" si="1"/>
         <v>23.333333333333332</v>
       </c>
-      <c r="N26" s="17">
-        <f t="shared" si="0"/>
+      <c r="N26" s="15">
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="O26" s="17">
-        <f t="shared" si="0"/>
+      <c r="O26" s="15">
+        <f t="shared" si="1"/>
         <v>57.333333333333336</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="K27" s="9">
         <f>K26 * E7</f>
         <v>7920</v>

--- a/Decision_analytics/Module4/CTG1 - Assignment 2 - Tasks, Hours, & Cost.xlsx
+++ b/Decision_analytics/Module4/CTG1 - Assignment 2 - Tasks, Hours, & Cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/forreststrodel/Desktop/Northwestern/MSDS 460/Assignments/Assignment 2/DataScience/Decision_analytics/Module4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12A2EDD-BACC-4546-BA7C-E013B061A7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7184D1B2-498B-B64D-AE81-B2A563F33486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{1B5D745C-8884-4D33-A526-84118B2469EE}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="64">
   <si>
     <t>taskID</t>
   </si>
@@ -204,9 +204,6 @@
     <t>Overhead:</t>
   </si>
   <si>
-    <t>Total Cost:</t>
-  </si>
-  <si>
     <t>Scenario:</t>
   </si>
   <si>
@@ -220,6 +217,18 @@
   </si>
   <si>
     <t>Check</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>1. This tab, 'Tasks &amp; Hours' includes conclusions of research conducted to assess the hours and resources required to complete each task</t>
+  </si>
+  <si>
+    <t>2. The next tab, 'Costs' includes hourly rates, calculates the pure salary costs required to complete this project, and calculates an overall project estimate cost</t>
+  </si>
+  <si>
+    <t>Project Cost:</t>
   </si>
 </sst>
 </file>
@@ -383,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -421,9 +430,6 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -431,14 +437,23 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1218,15 +1233,21 @@
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
+      <c r="A19" s="24" t="s">
+        <v>60</v>
+      </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
+      <c r="A20" s="25" t="s">
+        <v>61</v>
+      </c>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
+      <c r="A21" s="25" t="s">
+        <v>62</v>
+      </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -1288,16 +1309,16 @@
       <c r="A2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="19" t="s">
         <v>3</v>
       </c>
       <c r="L2" s="9">
         <v>8304</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="N2" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="22">
+      <c r="O2" s="21">
         <f>AVERAGE(L3:L4)</f>
         <v>14604</v>
       </c>
@@ -1306,36 +1327,36 @@
       <c r="A3" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="19" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="9">
         <v>12504</v>
       </c>
-      <c r="N3" s="25" t="s">
+      <c r="N3" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="O3" s="26">
+      <c r="O3" s="23">
         <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="19" t="s">
         <v>5</v>
       </c>
       <c r="L4" s="9">
         <v>16704</v>
       </c>
-      <c r="N4" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="O4" s="24">
+      <c r="N4" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="O4" s="27">
         <f>MROUND(O2 * (1 + O3), 500)</f>
         <v>18500</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="N5" s="20"/>
+      <c r="N5" s="19"/>
       <c r="O5" s="9"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
@@ -1360,13 +1381,13 @@
         <v>dataEngineer</v>
       </c>
       <c r="K6" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="18" t="s">
         <v>56</v>
-      </c>
-      <c r="L6" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6" s="18" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -1389,7 +1410,7 @@
         <v>72</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L7" s="9">
         <f>SUMPRODUCT(E7:I7, K26:O26)</f>
@@ -1440,10 +1461,10 @@
         <v>10</v>
       </c>
       <c r="Q9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="R9" s="12" t="s">
         <v>59</v>
-      </c>
-      <c r="R9" s="12" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
